--- a/Address details.xlsx
+++ b/Address details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kishorka\Desktop\Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A70FD22-6D36-4A8B-9060-61188271A16D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C178BB55-C54C-4787-ACAC-87523B237D17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{72AFEC6F-AAA3-41E6-802F-610639074FD9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Mobileno</t>
+  </si>
+  <si>
+    <t>Siva</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
   </si>
 </sst>
 </file>
@@ -397,28 +406,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDF5186-4096-47A9-96F0-6ECA8751592C}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1889992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>8988993</v>
       </c>
     </row>
   </sheetData>
